--- a/Daily Activity/2025/Centra prod testing/QA_CENTRA_BUGS_02-Jan-2025 To 07-Jan-2025.xlsx
+++ b/Daily Activity/2025/Centra prod testing/QA_CENTRA_BUGS_02-Jan-2025 To 07-Jan-2025.xlsx
@@ -11,7 +11,7 @@
     <sheet name="CENTRA BUGS" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'CENTRA BUGS'!$J$1:$J$28</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'CENTRA BUGS'!$A$1:$J$62</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="155">
   <si>
     <t xml:space="preserve">SNO</t>
   </si>
@@ -132,7 +132,7 @@
     <t xml:space="preserve">CONSIGNMENT GIFT</t>
   </si>
   <si>
-    <t xml:space="preserve">SYSTEM SHOULD ALLOW TO SHOW IMPORT BUSINESS – PARTNER SCREEN IN ROW (IMPORT BUSINESS - PARTNER SCREEN NOT AVAILABLE)</t>
+    <t xml:space="preserve">Could not able to Import Business partner in ROW SQL Error is showing</t>
   </si>
   <si>
     <t xml:space="preserve">IMPORT DMS BUSINESS PARTNER</t>
@@ -422,31 +422,61 @@
     <t xml:space="preserve">ABORT WORKFLOW PROCESS NOT SHOWING SCREEN IN ROW BUGS BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">ABORT WORKFLOW PROCESS </t>
+  </si>
+  <si>
     <t xml:space="preserve">GOBI</t>
   </si>
   <si>
     <t xml:space="preserve">ATTRIBUTE INSTANCES NOT CREATE LINE IN CENTRA ROW BUGS BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">ATTRIBUTE INSTANCES</t>
+  </si>
+  <si>
     <t xml:space="preserve">BUSINESS PAARTNER CUSTOMERLINEISSUE IN (FREIGHT) MISSING CENTRA REGION BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">BUSINESS PARTNER</t>
+  </si>
+  <si>
     <t xml:space="preserve"> CURRENCY CENTRA CUSTOM 2 SCREEN NOT SHOW.BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">ROW/HQOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CURRENCY</t>
+  </si>
+  <si>
     <t xml:space="preserve"> DEPARTMENT LINE DIVISION MISSING.BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">DEPARTMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">DOCUMENT SQUENCE ROW (DOCUMENT TYPE) MISSING IN MAIN SCREEN.BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">DOCUMENT TYPE</t>
+  </si>
+  <si>
     <t xml:space="preserve"> ROW CENTRA MISSING (GLCATEGORY)</t>
   </si>
   <si>
+    <t xml:space="preserve">GL CATEGORY SCREEN MISSING</t>
+  </si>
+  <si>
     <t xml:space="preserve">GROUP OF ATTRIBUTES IN ROW CENTRA BUGS</t>
   </si>
   <si>
+    <t xml:space="preserve">GROUP OF ATTRIBUTES </t>
+  </si>
+  <si>
     <t xml:space="preserve">IMPORT FEE GROUP MISSING IN HQOW CENTRA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT FEE GROUP MISSING SCREEN</t>
   </si>
   <si>
     <t xml:space="preserve">IMPORT REPORT LINE SET IS N0T SHOWING IN ROW CENTRA AWS</t>
@@ -525,6 +555,100 @@
   </si>
   <si>
     <t xml:space="preserve">SALES ORDER SUMMARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT TALLY SHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRANCH SHOULD NOT BE (*) AS DEFAULT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPORT CAMPAIGN MAPPING</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEPARTMENT FIELD IS NOT SHOWING IN AWS HQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTA PAYMENT – AP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“BRANCH” PARAMETER SHOWING ALL REGIONS NAME IN “OUT STANDING COMMERCIAL DISCOUNT REPORT-ROW’. LOGIN REGION NAME ONLY SHOULD SHOW IN ROW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT STANDING COMMERCIAL DISCOUNT REPORT-ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.”TRANSACTION DATE” AND “USER” PARAMETER’S MISSING IN PAYMENT TRANSACTION LOG(ROW).
+2.CENTRA R1ROW AND R1ROW-8181 PRINT FORMATE NOT MATCHED.
+REPORT NAME : PAYMENT TRANSACTION LOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAYMENT TRANSACTION LOG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMMARY OUTSTANDING COMMERCIAL REPORT MISSING IN ROW.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMMARY OUTSTANDING COMMERCIAL REPORT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOGIN REGION TRANSACTION ONLY SHOULD SHOW. BUT CURRENCY REPORT SHOW ALL REGION DATA.
+REPORT NAME : TOTAL SALES MTS BY SALESMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HQOW/ ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL SALES MTS BY SALESMAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRINT FORMAT EMPTY IN CUSTOMER NO SALES REPORT – ROW. SO REPORT COULD NOT ABLE TO EXPORT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CUSTOMER NO SALES REPORT – ROW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. “BRANCH” PARAMETER SHOWING ALL REGIONS NAME IN OPEN MOVE CONFIRMATION-ROW . LOGIN REGION NAME ONLY SHOULD SHOW IN ROW.
+2. OPEN MOVE CONFIRMATION REPORT SHOULD SHOW ALL REGION VALUE’S IN HQ. ALL BRANCH (*) VALUE MISSING IN BRANCH PARAMETER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEN MOVE CONFIRMATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGE PARTNER SCREEN CENTRA UPICODE COLUMN UNNESSCCASARY BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGE PARTNER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANAGE PARTNER UM_DeliveryRegDate UN NESSCARY SCREEN IN CENTRA ROW BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTA PRODUCT CATEGORY ACCOUNTING SCHEMA LINE MISSING IN CENTRA BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NTAPRODUCT CATEGORY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT BRAND ISSUE IN ROW CENTRA (BRAND) ADDED BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRODUCT BRAND</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETURN TO POLICY ISSUE 8181 ROW CHECK CENTRA ROW RETURN TO POLICY EDITABLE BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RETURN TO POLICY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISSUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA CATEGORY HQOW DOC TYPE ISSUE IN CENTRA BUGS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMA CATEGORY</t>
   </si>
 </sst>
 </file>
@@ -656,7 +780,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -738,11 +862,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -762,6 +890,44 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC9211E"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -834,20 +1000,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ47"/>
+  <dimension ref="A1:AMJ62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="81" zoomScaleNormal="81" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E50" activeCellId="0" sqref="E50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.30859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="27.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="69.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="40.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="8.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.59"/>
@@ -855,7 +1021,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="15.29"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -887,7 +1053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -919,7 +1085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -951,7 +1117,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -983,7 +1149,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="n">
         <v>4</v>
       </c>
@@ -1015,7 +1181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="n">
         <v>5</v>
       </c>
@@ -1047,7 +1213,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="n">
         <v>6</v>
       </c>
@@ -1079,7 +1245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="n">
         <v>7</v>
       </c>
@@ -1111,7 +1277,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="n">
         <v>8</v>
       </c>
@@ -1143,7 +1309,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="n">
         <v>9</v>
       </c>
@@ -1175,7 +1341,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="n">
         <v>10</v>
       </c>
@@ -1207,7 +1373,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="n">
         <v>11</v>
       </c>
@@ -1239,7 +1405,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="n">
         <v>12</v>
       </c>
@@ -1269,7 +1435,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="14" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" s="15" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="n">
         <v>13</v>
       </c>
@@ -1300,7 +1466,7 @@
       </c>
       <c r="AMJ14" s="16"/>
     </row>
-    <row r="15" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="n">
         <v>14</v>
       </c>
@@ -1330,7 +1496,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" s="15" customFormat="true" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" s="15" customFormat="true" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="n">
         <v>15</v>
       </c>
@@ -1361,7 +1527,7 @@
       </c>
       <c r="AMJ16" s="16"/>
     </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="n">
         <v>16</v>
       </c>
@@ -1391,7 +1557,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="n">
         <v>17</v>
       </c>
@@ -1421,7 +1587,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="n">
         <v>18</v>
       </c>
@@ -1451,7 +1617,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="n">
         <v>19</v>
       </c>
@@ -1481,7 +1647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="n">
         <v>20</v>
       </c>
@@ -1511,7 +1677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="n">
         <v>21</v>
       </c>
@@ -1541,7 +1707,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="n">
         <v>22</v>
       </c>
@@ -1571,7 +1737,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="n">
         <v>23</v>
       </c>
@@ -1601,7 +1767,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="n">
         <v>24</v>
       </c>
@@ -1631,7 +1797,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="n">
         <v>25</v>
       </c>
@@ -1661,7 +1827,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="n">
         <v>26</v>
       </c>
@@ -1691,7 +1857,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="n">
         <v>27</v>
       </c>
@@ -1721,7 +1887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="n">
         <v>28</v>
       </c>
@@ -1737,19 +1903,21 @@
       <c r="E29" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F29" s="21"/>
+      <c r="F29" s="21" t="s">
+        <v>84</v>
+      </c>
       <c r="G29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="21"/>
-      <c r="J29" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J29" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="n">
         <v>29</v>
       </c>
@@ -1757,7 +1925,7 @@
         <v>45664</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="21" t="s">
         <v>11</v>
@@ -1765,19 +1933,21 @@
       <c r="E30" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="21"/>
+      <c r="F30" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="G30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="21"/>
-      <c r="J30" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J30" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="n">
         <v>30</v>
       </c>
@@ -1785,7 +1955,7 @@
         <v>45664</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D31" s="21" t="s">
         <v>11</v>
@@ -1793,19 +1963,21 @@
       <c r="E31" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F31" s="21"/>
+      <c r="F31" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="G31" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="21"/>
-      <c r="J31" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J31" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="5" t="n">
         <v>31</v>
       </c>
@@ -1813,25 +1985,29 @@
         <v>45664</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D32" s="21"/>
+        <v>90</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="E32" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F32" s="21"/>
+      <c r="F32" s="21" t="s">
+        <v>92</v>
+      </c>
       <c r="G32" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="21"/>
-      <c r="J32" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J32" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="5" t="n">
         <v>32</v>
       </c>
@@ -1839,25 +2015,29 @@
         <v>45664</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="21"/>
+        <v>93</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>11</v>
+      </c>
       <c r="E33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F33" s="21"/>
+      <c r="F33" s="21" t="s">
+        <v>94</v>
+      </c>
       <c r="G33" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="21"/>
-      <c r="J33" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J33" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="5" t="n">
         <v>33</v>
       </c>
@@ -1865,25 +2045,29 @@
         <v>45664</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D34" s="21"/>
+        <v>95</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>91</v>
+      </c>
       <c r="E34" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F34" s="21"/>
+      <c r="F34" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="G34" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="21"/>
-      <c r="J34" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J34" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="5" t="n">
         <v>34</v>
       </c>
@@ -1891,7 +2075,7 @@
         <v>45664</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D35" s="21" t="s">
         <v>11</v>
@@ -1899,19 +2083,21 @@
       <c r="E35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="21"/>
+      <c r="F35" s="21" t="s">
+        <v>98</v>
+      </c>
       <c r="G35" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="21"/>
-      <c r="J35" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J35" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="5" t="n">
         <v>35</v>
       </c>
@@ -1919,7 +2105,7 @@
         <v>45664</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D36" s="21" t="s">
         <v>11</v>
@@ -1927,19 +2113,21 @@
       <c r="E36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="21"/>
+      <c r="F36" s="21" t="s">
+        <v>100</v>
+      </c>
       <c r="G36" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="21"/>
-      <c r="J36" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J36" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="5" t="n">
         <v>36</v>
       </c>
@@ -1947,7 +2135,7 @@
         <v>45664</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D37" s="21" t="s">
         <v>52</v>
@@ -1955,27 +2143,29 @@
       <c r="E37" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="21"/>
+      <c r="F37" s="21" t="s">
+        <v>102</v>
+      </c>
       <c r="G37" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="22" t="s">
         <v>15</v>
       </c>
       <c r="I37" s="21"/>
-      <c r="J37" s="20" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J37" s="22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="5" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="22" t="n">
+      <c r="B38" s="23" t="n">
         <v>45664</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>11</v>
@@ -1984,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>14</v>
@@ -1997,15 +2187,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="5" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="22" t="n">
+      <c r="B39" s="23" t="n">
         <v>45664</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>11</v>
@@ -2014,7 +2204,7 @@
         <v>49</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>14</v>
@@ -2027,24 +2217,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="5" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="22" t="n">
+      <c r="B40" s="23" t="n">
         <v>45664</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>14</v>
@@ -2057,24 +2247,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="22" t="n">
+      <c r="B41" s="23" t="n">
         <v>45664</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>49</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>14</v>
@@ -2087,24 +2277,24 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="5" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="19" t="n">
         <v>45664</v>
       </c>
-      <c r="C42" s="23" t="s">
-        <v>102</v>
+      <c r="C42" s="24" t="s">
+        <v>112</v>
       </c>
       <c r="D42" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E42" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>14</v>
@@ -2117,24 +2307,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="5" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="19" t="n">
         <v>45664</v>
       </c>
-      <c r="C43" s="23" t="s">
-        <v>105</v>
+      <c r="C43" s="24" t="s">
+        <v>115</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E43" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>14</v>
@@ -2147,24 +2337,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="5" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="19" t="n">
         <v>45664</v>
       </c>
-      <c r="C44" s="23" t="s">
-        <v>107</v>
+      <c r="C44" s="24" t="s">
+        <v>117</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E44" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="21" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>14</v>
@@ -2177,24 +2367,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="19" t="n">
         <v>45664</v>
       </c>
-      <c r="C45" s="23" t="s">
-        <v>109</v>
+      <c r="C45" s="24" t="s">
+        <v>119</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E45" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>14</v>
@@ -2207,24 +2397,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="19" t="n">
         <v>45664</v>
       </c>
-      <c r="C46" s="23" t="s">
-        <v>111</v>
+      <c r="C46" s="24" t="s">
+        <v>121</v>
       </c>
       <c r="D46" s="21" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E46" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>14</v>
@@ -2237,24 +2427,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="19" t="n">
         <v>45664</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="D47" s="21" t="s">
         <v>113</v>
-      </c>
-      <c r="D47" s="21" t="s">
-        <v>103</v>
       </c>
       <c r="E47" s="21" t="s">
         <v>12</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>14</v>
@@ -2267,11 +2457,461 @@
         <v>17</v>
       </c>
     </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="5"/>
+      <c r="J48" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="19" t="n">
+        <v>45666</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="5"/>
+      <c r="J49" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="21"/>
+      <c r="J50" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="G51" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="21"/>
+      <c r="J51" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="57.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="G52" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="21"/>
+      <c r="J52" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="21"/>
+      <c r="J53" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C54" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D54" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="21"/>
+      <c r="J54" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C55" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="21"/>
+      <c r="J55" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="67.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="19" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C56" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="23" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="5"/>
+      <c r="J57" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="23" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="5"/>
+      <c r="J58" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="23" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="5"/>
+      <c r="J59" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="23" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="5"/>
+      <c r="J60" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="23" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="5"/>
+      <c r="J61" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="23" t="n">
+        <v>45665</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="J1:J28"/>
+  <autoFilter ref="A1:J62"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
